--- a/Image.xlsx
+++ b/Image.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6CA7E2-703F-46F3-90D6-7B2DB1F13231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E5242D-5FCF-4569-828D-BC865BB0390A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="840" windowWidth="36340" windowHeight="18960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16270" yWindow="1650" windowWidth="36340" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volumi Italiani" sheetId="1" r:id="rId1"/>
     <sheet name="Cronologia Italiana" sheetId="2" r:id="rId2"/>
-    <sheet name="Foglio3" sheetId="4" r:id="rId3"/>
+    <sheet name="Cronologia USA" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>Extreme Youngblood</t>
   </si>
@@ -1533,6 +1533,206 @@
       </rPr>
       <t> (colors)</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>Rob Liefeld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> (script) / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF0A83E3"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Stephen Platt (art)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Eric Stephenson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> (script) / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF0A83E3"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rob Liefeld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> (script) / Rob Liefeld (art) / Danny Miki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF0A83E3"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Chap Yaep, Jonathan Sibal</t>
+    </r>
+  </si>
+  <si>
+    <t>New Men vol.1</t>
+  </si>
+  <si>
+    <r>
+      <t>Rob Liefeld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> (script) / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF0A83E3"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jeff Matsuda (art) Jonathan Sibal (inks) Eric Stephenson (script)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rob Liefeld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> (script) / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF0A83E3"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eric Stephenson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> (script) / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF990000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rob Liefeld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> (art) / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF0A83E3"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Danny Miki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> (inks) / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF0A83E3"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kiko Taganashi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> (colors)</t>
+    </r>
+  </si>
+  <si>
+    <t>Youngblood vol.1</t>
+  </si>
+  <si>
+    <t>Jeff Matsuda (script, art) Jonathan Sibal (ink), Eirc Stephenson (script)</t>
+  </si>
+  <si>
+    <t>Youngblood Strikefile vol.1</t>
+  </si>
+  <si>
+    <t>Inedita Storia 2</t>
+  </si>
+  <si>
+    <t>Eric Stephenson (script), Sam Liu (penciler), Jason Pearson(penciler) Mike Christian (inker)</t>
+  </si>
+  <si>
+    <t>Speciale Image</t>
+  </si>
+  <si>
+    <t>Il numero #0 ho la Variant Lucca 1994</t>
+  </si>
+  <si>
+    <t>Srar Comics</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1787,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1606,6 +1806,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1620,7 +1826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1636,6 +1842,7 @@
     <xf numFmtId="17" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -1917,10 +2124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:D5"/>
+  <dimension ref="A4:E6"/>
   <sheetViews>
     <sheetView zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1929,9 +2136,10 @@
     <col min="2" max="2" width="9.1796875" customWidth="1"/>
     <col min="3" max="3" width="15.1796875" customWidth="1"/>
     <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="36.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1945,7 +2153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1957,6 +2165,23 @@
       </c>
       <c r="D5" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1966,10 +2191,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE482348-D846-4DF9-B003-32EA992BEF39}">
-  <dimension ref="A3:D18"/>
+  <dimension ref="A3:D21"/>
   <sheetViews>
-    <sheetView zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1983,12 +2208,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>34486</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>34639</v>
+        <v>34547</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1999,13 +2238,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>34669</v>
+        <v>34639</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -2013,13 +2252,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>34700</v>
+        <v>34639</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -2027,13 +2266,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>34731</v>
+        <v>34669</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -2041,13 +2280,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>34759</v>
+        <v>34700</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -2055,13 +2294,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>34790</v>
+        <v>34731</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -2069,13 +2308,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>34820</v>
+        <v>34759</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -2083,27 +2322,27 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>34851</v>
+        <v>34759</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>34881</v>
+        <v>34790</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -2111,13 +2350,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>34912</v>
+        <v>34820</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -2125,13 +2364,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>34943</v>
+        <v>34851</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -2139,15 +2378,57 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>34973</v>
+        <v>34881</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>34912</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>34943</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>34973</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
         <v>12</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2158,10 +2439,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E551ED47-91E3-4E38-8734-91993F7A6A9C}">
-  <dimension ref="A8:G58"/>
+  <dimension ref="A8:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView topLeftCell="B48" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2263,303 +2544,407 @@
         <v>16</v>
       </c>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>34425</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>34455</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>21</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
-        <v>34243</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1">
-        <v>34243</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>34335</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>31</v>
+        <v>34243</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>34243</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>34335</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B32">
         <v>4</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C32" s="1">
         <v>34366</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F32" s="9" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1">
-        <v>34121</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34" s="1">
-        <v>34151</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>19</v>
+        <v>34425</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B35">
-        <v>5</v>
-      </c>
-      <c r="C35" s="1">
-        <v>34182</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>20</v>
+      <c r="A35" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1">
-        <v>34243</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>20</v>
+        <v>34121</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C37" s="1">
-        <v>34274</v>
+        <v>34151</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B38">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1">
-        <v>34304</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>35</v>
+        <v>34182</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B39">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C39" s="1">
-        <v>34335</v>
+        <v>34243</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B40">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1">
-        <v>34366</v>
+        <v>34274</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B41">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C41" s="1">
-        <v>34394</v>
+        <v>34304</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1">
+        <v>34335</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>17</v>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1">
+        <v>34366</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B44">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C44" s="1">
-        <v>34213</v>
-      </c>
-      <c r="F44" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45" s="1">
-        <v>34243</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>24</v>
+        <v>34394</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46" s="1">
-        <v>34274</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>25</v>
+      <c r="A46" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1">
-        <v>34304</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>25</v>
+        <v>34213</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C48" s="1">
-        <v>34335</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>33</v>
+        <v>34243</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B49">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1">
-        <v>34366</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>33</v>
+        <v>34274</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B50">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C50" s="1">
-        <v>34394</v>
+        <v>34304</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1">
+        <v>34335</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1">
+        <v>34366</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1">
+        <v>34394</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B54">
         <v>8</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C54" s="1">
         <v>34425</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F54" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C52" s="1"/>
-      <c r="F52" s="9"/>
-    </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55" s="1">
+        <v>34455</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C56" s="1"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C57" s="1"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B58" s="2">
         <v>1</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C58" s="3">
         <v>34304</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F58" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C54" s="1"/>
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C55" s="1"/>
-      <c r="F55" s="9"/>
-    </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C59" s="1"/>
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C60" s="1"/>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1">
+        <v>34486</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C63" s="1"/>
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C64" s="1"/>
+      <c r="F64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B66" s="11">
+        <v>5</v>
+      </c>
+      <c r="C66" s="1">
+        <v>34516</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C67" s="1"/>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="69" spans="1:7" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B69" s="2">
         <v>1</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C69" s="3">
         <v>34151</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F69" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F58" s="4"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F70" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
